--- a/biology/Zoologie/Antartica,_prisonniers_du_froid/Antartica,_prisonniers_du_froid.xlsx
+++ b/biology/Zoologie/Antartica,_prisonniers_du_froid/Antartica,_prisonniers_du_froid.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Antartica, prisonniers du froid ou Huit en dessous[1] au Canada (Eight Below) est un film américain réalisé par Frank Marshall et sorti en 2006. Distribué par Walt Disney Pictures, le film est un remake pour enfants, sensiblement déformé, du film Antarctica (Nankyoku Monogatari) de 1983, où des chiens sont abandonnés lors d'une mission en Antarctique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antartica, prisonniers du froid ou Huit en dessous au Canada (Eight Below) est un film américain réalisé par Frank Marshall et sorti en 2006. Distribué par Walt Disney Pictures, le film est un remake pour enfants, sensiblement déformé, du film Antarctica (Nankyoku Monogatari) de 1983, où des chiens sont abandonnés lors d'une mission en Antarctique.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Trois membres d'une expédition scientifique, Jerry Shepard, son meilleur ami Cooper et un géologue américain déterminé, sont forcés de laisser derrière eux leur chère meute de chiens de traîneaux en raison d'un accident soudain et de conditions climatiques instables au cœur de l'Antarctique. Durant le rude hiver, les huit chiens doivent lutter pour leur survie, seuls dans les vastes étendues de glace pour plus de six mois.
 Les huit chiens ont pour nom, en tête du traîneau (les leaders) : Maya (la seule femelle du groupe) et Jack (il a 10 ans et n'est pas loin de la retraite) ; en deuxième ligne du traîneau (les swing dogs) : Shorty (tout blanc) et Max (le plus jeune, novice mais prometteur) ; en troisième ligne du traîneau (les team dogs) : Dewey (a une cicatrice au-dessus de l’œil gauche) et son jumeau Truman (qui a fait la cicatrice à Dewey) ; en quatrième et dernière ligne du traîneau (les wheel dogs) : Buck ("tout en muscles et sans cervelle") et Shadow (gris), tous deux sont des Malamutes.
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Eight Below
 Réalisation : Frank Marshall
@@ -578,9 +594,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Paul Walker (VF : Guillaume Lebon[2] et VQ : François Godin) : Jerry Shepard
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Paul Walker (VF : Guillaume Lebon et VQ : François Godin) : Jerry Shepard
 Bruce Greenwood (VF : Bernard Lanneau et VQ : Mario Desmarais) : Davis McClaren
 Moon Bloodgood (VF : Julie Dumas et VQ : Nadia Paradis) : Katie
 Wendy Crewson (VQ : Julie Saint-Pierre) : Eve McClaren
@@ -630,6 +648,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -656,6 +676,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
